--- a/Excel Lec/Index+Match/lab-assignment-4.xlsx
+++ b/Excel Lec/Index+Match/lab-assignment-4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\DA pyth [Anudip]\Excel Lec\Index+Match\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CA06B1-6D88-4553-A0AE-A1AC6729BA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A786F6-5310-4E20-A124-B5BEE55E34A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +693,7 @@
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G20">
-        <f>MAX(INDEX(D2:H7,MATCH("PRODB",B2:B7,0),1),INDEX(D2:H7,MATCH("PRODB",B2:B7,0),2),INDEX(D2:H7,MATCH("PRODB",B2:B7,0),3),INDEX(D2:H7,MATCH("PRODB",B2:B7,0),4),INDEX(D2:H7,MATCH("PRODB",B2:B7,0),5))</f>
+        <f>MAX(INDEX(D2:H7,MATCH("PRODB",B2:B7,0),0))</f>
         <v>190</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G24">
-        <f>MAX(INDEX(D2:H7,MATCH("PRODA",B2:B7,0),1),INDEX(D2:H7,MATCH("PRODA",B2:B7,0),2),INDEX(D2:H7,MATCH("PRODA",B2:B7,0),3),INDEX(D2:H7,MATCH("PRODA",B2:B7,0),4),INDEX(D2:H7,MATCH("PRODA",B2:B7,0),5))</f>
+        <f>MAX(INDEX(D2:H7,MATCH("PRODA",B2:B7,0),0))</f>
         <v>160</v>
       </c>
       <c r="H24" t="s">
@@ -728,7 +728,7 @@
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G29">
-        <f>SUMIF(C2:C7,"Electronics",G2:G7)</f>
+        <f>SUMIF(C2:C7,"Electronics",INDEX(D2:H7,,MATCH("Apr Sales",D1:H1,0)))</f>
         <v>540</v>
       </c>
     </row>
@@ -744,7 +744,7 @@
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G33">
-        <f>AVERAGE(INDEX(D2:H7,MATCH("PRODD",B2:B7,0),1),INDEX(D2:H7,MATCH("PRODD",B2:B7,0),2),INDEX(D2:H7,MATCH("PRODD",B2:B7,0),3),INDEX(D2:H7,MATCH("PRODD",B2:B7,0),4),INDEX(D2:H7,MATCH("PRODD",B2:B7,0),5))</f>
+        <f>AVERAGE(INDEX(D2:H7,MATCH("PRODD",B2:B7,0),0))</f>
         <v>110</v>
       </c>
     </row>
